--- a/Work/工作记录表.xlsx
+++ b/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>STM32 Jlink &amp; STLink 连接失败</t>
+  </si>
+  <si>
+    <t>DSP 学习经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,7 +608,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -715,6 +719,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>42385.077476851853</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
     </row>
@@ -752,8 +764,9 @@
     <hyperlink ref="B2" r:id="rId8" display="Work\工作总结\2015-12-04 14_56pm"/>
     <hyperlink ref="B10" r:id="rId9"/>
     <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Work/工作记录表.xlsx
+++ b/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>DSP 学习经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程与面对对象思想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +612,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -727,6 +731,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>42386.671296296299</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
     </row>
@@ -765,8 +777,9 @@
     <hyperlink ref="B10" r:id="rId9"/>
     <hyperlink ref="B11" r:id="rId10"/>
     <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Work/工作记录表.xlsx
+++ b/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>工程与面对对象思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR6323 调试记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +616,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -737,6 +741,14 @@
       </c>
       <c r="B13" s="9" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>42388.120798611111</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -778,8 +790,9 @@
     <hyperlink ref="B11" r:id="rId10"/>
     <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Work/工作记录表.xlsx
+++ b/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>GR6323 调试记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP 外部RAM设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiber &amp; SDRAM 高低温不过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +624,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -749,6 +757,17 @@
       </c>
       <c r="B14" s="9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>42392.821898148148</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -791,8 +810,10 @@
     <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B13" r:id="rId12"/>
     <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14" display="DSP 外部RAM设计"/>
+    <hyperlink ref="B15" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Work/工作记录表.xlsx
+++ b/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>Fiber &amp; SDRAM 高低温不过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁存器、触发器和寄存器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -768,6 +772,14 @@
       </c>
       <c r="C15" s="7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>42417.926631944443</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -812,8 +824,9 @@
     <hyperlink ref="B14" r:id="rId13"/>
     <hyperlink ref="C15" r:id="rId14" display="DSP 外部RAM设计"/>
     <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="B16" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Work/工作记录表.xlsx
+++ b/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>锁存器、触发器和寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C 设备驱动注册分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -782,28 +786,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>42423.837326388886</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
     </row>
   </sheetData>
@@ -825,8 +837,9 @@
     <hyperlink ref="C15" r:id="rId14" display="DSP 外部RAM设计"/>
     <hyperlink ref="B15" r:id="rId15"/>
     <hyperlink ref="B16" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Work/工作记录表.xlsx
+++ b/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>I2C 设备驱动注册分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C 适配器驱动添加以及I2C_client添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +636,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -792,6 +796,14 @@
       </c>
       <c r="B17" s="9" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>42426.78833333333</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -838,8 +850,9 @@
     <hyperlink ref="B15" r:id="rId15"/>
     <hyperlink ref="B16" r:id="rId16"/>
     <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="B18" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Work/工作记录表.xlsx
+++ b/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>I2C 适配器驱动添加以及I2C_client添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码整洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售发展学习内容总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +644,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -807,7 +815,20 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>42429.783159722225</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>42430.866666666669</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -851,8 +872,10 @@
     <hyperlink ref="B16" r:id="rId16"/>
     <hyperlink ref="B17" r:id="rId17"/>
     <hyperlink ref="B18" r:id="rId18"/>
+    <hyperlink ref="B19" r:id="rId19"/>
+    <hyperlink ref="B20" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>